--- a/verbs_comunes.xlsx
+++ b/verbs_comunes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>eat</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>alcanzar</t>
+  </si>
+  <si>
+    <t>reached</t>
+  </si>
+  <si>
+    <t>He kept working until 6 evenings</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>caer</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>I fell from a ladder yesterday</t>
+  </si>
+  <si>
+    <t>I fell off the bike</t>
+  </si>
+  <si>
+    <t>Can you reach the glass on the top shelf?</t>
   </si>
 </sst>
 </file>
@@ -488,14 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
@@ -637,6 +665,32 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,15 +699,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A14"/>
+  <dimension ref="A2:A18"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -721,6 +775,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
